--- a/Results/Classification/Augmented Data/Control vs Atypical/Classification Summary.xlsx
+++ b/Results/Classification/Augmented Data/Control vs Atypical/Classification Summary.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model.nosync/Results/Classification/Control vs Atypical/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christopher/Documents/PTSD/NCDE Model.nosync/Results/Classification/Augmented Data/Control vs Atypical/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D97D7CE-C14E-AA4A-AC9A-1830C4F73B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D755943-E135-E943-AA28-AAEE46A74F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" xr2:uid="{062D004C-F53A-1D47-97C0-0B8F3220FE90}"/>
+    <workbookView xWindow="10360" yWindow="2000" windowWidth="28040" windowHeight="17440" xr2:uid="{062D004C-F53A-1D47-97C0-0B8F3220FE90}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Histogram Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,21 +37,72 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t>Control</t>
   </si>
   <si>
     <t>Atypical</t>
   </si>
+  <si>
+    <t>Bin</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>NODE</t>
+  </si>
+  <si>
+    <t>NCDE</t>
+  </si>
+  <si>
+    <t>200 Iterations</t>
+  </si>
+  <si>
+    <t>100 Iterations</t>
+  </si>
+  <si>
+    <t>50 Iterations</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -65,7 +117,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -73,17 +125,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -107,13 +188,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -130,6 +211,406 @@
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
           <a:off x="0" y="25400"/>
+          <a:ext cx="1651000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{199298B5-9024-A943-BF80-C1D48FF7FE96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="228600"/>
+          <a:ext cx="1651000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Straight Connector 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F45FDF1-7FF9-5042-B335-311C0EDEBD4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="1854200"/>
+          <a:ext cx="1651000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1392579-5BFE-6F48-B5DE-5AAAC7A7A6D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="1854200"/>
+          <a:ext cx="1651000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="Straight Connector 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78DCD024-841A-6145-8B36-08ECBF8CFF1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="3276600"/>
+          <a:ext cx="1651000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="Straight Connector 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{406D2AA9-28B4-7B4E-B5CD-80C4D6213CCC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="5232400"/>
+          <a:ext cx="1651000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="Straight Connector 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCBE838-BB4B-5840-828A-8D731F852EA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="6654800"/>
+          <a:ext cx="1651000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="Straight Connector 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82B8614C-2411-F140-A2F4-6F863098ACEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="5232400"/>
+          <a:ext cx="1651000" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20CD0054-92D7-0043-939E-0BBE62B7F025}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="6654800"/>
           <a:ext cx="1651000" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -453,148 +934,1484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99621FD6-3A7B-D04E-89EF-35E6FCECDE0F}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="E72" sqref="E72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2</v>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <f>SUM(C3:E3)/30</f>
-        <v>0.6</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>0.7</v>
-      </c>
-      <c r="J3">
-        <v>0.6</v>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <f>SUM(C4:E4)/30</f>
-        <v>0.43333333333333335</v>
-      </c>
-      <c r="H4">
-        <v>0.5</v>
-      </c>
-      <c r="I4">
-        <v>0.6</v>
-      </c>
-      <c r="J4">
-        <v>0.2</v>
-      </c>
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2">
-        <v>5</v>
+      <c r="A5" s="6">
+        <v>0</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5">
+        <v>4</v>
       </c>
       <c r="D5">
         <v>6</v>
       </c>
       <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <f>SUM(C5:E5)/30</f>
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <f>C5/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I6" si="0">D5/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J6" si="1">E5/10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
         <v>4</v>
       </c>
-      <c r="F5">
-        <f>SUM(C5:E5)/27</f>
+      <c r="F6">
+        <f>SUM(C6:E6)/30</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H6">
+        <f>C6/10</f>
+        <v>0.3</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>2</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <f>SUM(C7:E7)/27</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="H7" s="1">
+        <f>C7/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7" si="2">D7/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" ref="J7" si="3">E7/9</f>
         <v>0.55555555555555558</v>
       </c>
-      <c r="H5" s="3">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C8">
+        <f>SUM(C5:C7)/29</f>
+        <v>0.37931034482758619</v>
+      </c>
+      <c r="D8">
+        <f>SUM(D5:D7)/29</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="E8">
+        <f>SUM(E5:E7)/29</f>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="F8">
+        <f>SUM(C5:E7)/87</f>
+        <v>0.45977011494252873</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>0</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <f>SUM(C12:E12)/30</f>
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <f>C12/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="I12">
+        <f t="shared" ref="I12:J12" si="4">D12/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <f>SUM(C13:E13)/30</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="H13">
+        <f>C13/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ref="I13" si="5">D13/10</f>
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ref="J13" si="6">E13/10</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>2</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <f>SUM(C14:E14)/27</f>
+        <v>0.48148148148148145</v>
+      </c>
+      <c r="H14" s="1">
+        <f>C14/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" ref="I14:J14" si="7">D14/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" si="7"/>
         <v>0.55555555555555558</v>
       </c>
-      <c r="I5">
-        <v>0.67</v>
-      </c>
-      <c r="J5">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C6">
-        <f>SUM(C3:C5)/29</f>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C15">
+        <f>SUM(C12:C14)/29</f>
+        <v>0.34482758620689657</v>
+      </c>
+      <c r="D15">
+        <f>SUM(D12:D14)/29</f>
+        <v>0.41379310344827586</v>
+      </c>
+      <c r="E15">
+        <f>SUM(E12:E14)/29</f>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="F15">
+        <f>SUM(C12:E14)/87</f>
+        <v>0.41379310344827586</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>0</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>7</v>
+      </c>
+      <c r="E19">
+        <v>6</v>
+      </c>
+      <c r="F19">
+        <f>SUM(C19:E19)/30</f>
+        <v>0.6</v>
+      </c>
+      <c r="H19">
+        <f>C19/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ref="I19:I20" si="8">D19/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ref="J19:J20" si="9">E19/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f>SUM(C20:E20)/30</f>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H20">
+        <f>C20/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>2</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21">
+        <f>SUM(C21:E21)/27</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H21" s="1">
+        <f>C21/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" ref="I21" si="10">D21/9</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" ref="J21" si="11">E21/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22">
+        <f>SUM(C19:C21)/29</f>
         <v>0.51724137931034486</v>
       </c>
-      <c r="D6">
-        <f>SUM(D3:D5)/29</f>
+      <c r="D22">
+        <f>SUM(D19:D21)/29</f>
         <v>0.65517241379310343</v>
       </c>
-      <c r="E6">
-        <f>SUM(E3:E5)/29</f>
+      <c r="E22">
+        <f>SUM(E19:E21)/29</f>
         <v>0.41379310344827586</v>
       </c>
-      <c r="F6">
-        <f>SUM(C3:E5)/87</f>
+      <c r="F22">
+        <f>SUM(C19:E21)/87</f>
         <v>0.52873563218390807</v>
       </c>
     </row>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>0</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <f>SUM(C28:E28)/30</f>
+        <v>0.5</v>
+      </c>
+      <c r="H28">
+        <f>C28/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I28">
+        <f t="shared" ref="I28:I29" si="12">D28/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="J28">
+        <f t="shared" ref="J28:J29" si="13">E28/10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>1</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <f>SUM(C29:E29)/30</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H29">
+        <f>C29/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="13"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>2</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <f>SUM(C30:E30)/27</f>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="H30" s="1">
+        <f>C30/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I30">
+        <f t="shared" ref="I30" si="14">D30/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J30">
+        <f t="shared" ref="J30" si="15">E30/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f>SUM(C28:C30)/29</f>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="D31">
+        <f>SUM(D28:D30)/29</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="E31">
+        <f>SUM(E28:E30)/29</f>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="F31">
+        <f>SUM(C28:E30)/87</f>
+        <v>0.4942528735632184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>1</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="6">
+        <v>0</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35">
+        <v>5</v>
+      </c>
+      <c r="D35">
+        <v>5</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <f>SUM(C35:E35)/30</f>
+        <v>0.5</v>
+      </c>
+      <c r="H35">
+        <f>C35/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I36" si="16">D35/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:J36" si="17">E35/10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="6">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>5</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <f>SUM(C36:E36)/30</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H36">
+        <f>C36/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="17"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="6">
+        <v>2</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <f>SUM(C37:E37)/27</f>
+        <v>0.51851851851851849</v>
+      </c>
+      <c r="H37" s="1">
+        <f>C37/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="I37">
+        <f t="shared" ref="I37" si="18">D37/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37" si="19">E37/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f>SUM(C35:C37)/29</f>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="D38">
+        <f>SUM(D35:D37)/29</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="E38">
+        <f>SUM(E35:E37)/29</f>
+        <v>0.48275862068965519</v>
+      </c>
+      <c r="F38">
+        <f>SUM(C35:E37)/87</f>
+        <v>0.4942528735632184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>1</v>
+      </c>
+      <c r="E42" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>0</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44">
+        <v>5</v>
+      </c>
+      <c r="D44">
+        <v>7</v>
+      </c>
+      <c r="E44">
+        <v>6</v>
+      </c>
+      <c r="F44">
+        <f>SUM(C44:E44)/30</f>
+        <v>0.6</v>
+      </c>
+      <c r="H44">
+        <f>C44/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I44">
+        <f t="shared" ref="I44:I45" si="20">D44/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="J44">
+        <f t="shared" ref="J44:J45" si="21">E44/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>6</v>
+      </c>
+      <c r="E45">
+        <v>5</v>
+      </c>
+      <c r="F45">
+        <f>SUM(C45:E45)/30</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="H45">
+        <f>C45/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="20"/>
+        <v>0.6</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="21"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>2</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>4</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="F46">
+        <f>SUM(C46:E46)/27</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H46" s="1">
+        <f>C46/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I46">
+        <f t="shared" ref="I46" si="22">D46/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46" si="23">E46/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C47">
+        <f>SUM(C44:C46)/29</f>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="D47">
+        <f>SUM(D44:D46)/29</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="E47">
+        <f>SUM(E44:E46)/29</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="F47">
+        <f>SUM(C44:E46)/87</f>
+        <v>0.57471264367816088</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>1</v>
+      </c>
+      <c r="E49" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="6">
+        <v>0</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51">
+        <v>5</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+      <c r="E51">
+        <v>6</v>
+      </c>
+      <c r="F51">
+        <f>SUM(C51:E51)/30</f>
+        <v>0.6</v>
+      </c>
+      <c r="H51">
+        <f>C51/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I51">
+        <f t="shared" ref="I51:I52" si="24">D51/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="J51">
+        <f t="shared" ref="J51:J52" si="25">E51/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>1</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>5</v>
+      </c>
+      <c r="F52">
+        <f>SUM(C52:E52)/30</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H52">
+        <f>C52/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="24"/>
+        <v>0.6</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="6">
+        <v>2</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53">
+        <v>7</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="F53">
+        <f>SUM(C53:E53)/27</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H53" s="1">
+        <f>C53/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I53">
+        <f t="shared" ref="I53" si="26">D53/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="J53">
+        <f t="shared" ref="J53" si="27">E53/9</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C54">
+        <f>SUM(C51:C53)/29</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="D54">
+        <f>SUM(D51:D53)/29</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="E54">
+        <f>SUM(E51:E53)/29</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="F54">
+        <f>SUM(C51:E53)/87</f>
+        <v>0.56321839080459768</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" s="6">
+        <v>0</v>
+      </c>
+      <c r="D58" s="6">
+        <v>1</v>
+      </c>
+      <c r="E58" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="6">
+        <v>0</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60">
+        <v>7</v>
+      </c>
+      <c r="E60">
+        <v>6</v>
+      </c>
+      <c r="F60">
+        <f>SUM(C60:E60)/30</f>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H60">
+        <f>C60/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="I60">
+        <f t="shared" ref="I60:I61" si="28">D60/10</f>
+        <v>0.7</v>
+      </c>
+      <c r="J60">
+        <f t="shared" ref="J60:J61" si="29">E60/10</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>1</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61">
+        <v>5</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <f>SUM(C61:E61)/30</f>
+        <v>0.6</v>
+      </c>
+      <c r="H61">
+        <f>C61/10</f>
+        <v>0.5</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="28"/>
+        <v>0.7</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="29"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="6">
+        <v>2</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62">
+        <v>7</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>5</v>
+      </c>
+      <c r="F62">
+        <f>SUM(C62:E62)/27</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H62" s="1">
+        <f>C62/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I62">
+        <f t="shared" ref="I62" si="30">D62/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62" si="31">E62/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C63">
+        <f>SUM(C60:C62)/29</f>
+        <v>0.62068965517241381</v>
+      </c>
+      <c r="D63">
+        <f>SUM(D60:D62)/29</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="E63">
+        <f>SUM(E60:E62)/29</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="F63">
+        <f>SUM(C60:E62)/87</f>
+        <v>0.5977011494252874</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="6">
+        <v>1</v>
+      </c>
+      <c r="E65" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>0</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67">
+        <v>6</v>
+      </c>
+      <c r="D67">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>5</v>
+      </c>
+      <c r="F67">
+        <f>SUM(C67:E67)/30</f>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="H67">
+        <f>C67/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I68" si="32">D67/10</f>
+        <v>0.6</v>
+      </c>
+      <c r="J67">
+        <f t="shared" ref="J67:J68" si="33">E67/10</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="6">
+        <v>1</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68">
+        <v>7</v>
+      </c>
+      <c r="E68">
+        <v>5</v>
+      </c>
+      <c r="F68">
+        <f>SUM(C68:E68)/30</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H68">
+        <f>C68/10</f>
+        <v>0.4</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="32"/>
+        <v>0.7</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="33"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="6">
+        <v>2</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69">
+        <v>7</v>
+      </c>
+      <c r="D69">
+        <v>3</v>
+      </c>
+      <c r="E69">
+        <v>5</v>
+      </c>
+      <c r="F69">
+        <f>SUM(C69:E69)/27</f>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="H69" s="1">
+        <f>C69/9</f>
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="I69">
+        <f t="shared" ref="I69" si="34">D69/9</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J69">
+        <f t="shared" ref="J69" si="35">E69/9</f>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C70">
+        <f>SUM(C67:C69)/29</f>
+        <v>0.58620689655172409</v>
+      </c>
+      <c r="D70">
+        <f>SUM(D67:D69)/29</f>
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="E70">
+        <f>SUM(E67:E69)/29</f>
+        <v>0.51724137931034486</v>
+      </c>
+      <c r="F70">
+        <f>SUM(C67:E69)/87</f>
+        <v>0.55172413793103448</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
+  <mergeCells count="54">
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE7AF0F-4E0A-424A-A372-A2E697612D09}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A11">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>